--- a/data/income_statement/2digits/size/05_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/05_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>05-Mining of coal and lignite</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>05-Mining of coal and lignite</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4111838.82961</v>
+        <v>4075823.50305</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4090360.046180001</v>
+        <v>4079095.774</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5210650.70075</v>
+        <v>5178692.8772</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4923979.06868</v>
+        <v>4971017.91349</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4515150.458319999</v>
+        <v>4523028.2952</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4207234.288579999</v>
+        <v>4217075.41242</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3800602.4099</v>
+        <v>3727306.79338</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4526723.78616</v>
+        <v>4403757.750399999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>6110806.02806</v>
+        <v>6020237.58282</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6322453.428730001</v>
+        <v>6183770.729730001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6720580.14309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6651806.46883</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7822141.001</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4086870.77621</v>
+        <v>4053258.39649</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3960017.34662</v>
+        <v>3948962.7329</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4874245.61575</v>
+        <v>4842890.6918</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4888519.81645</v>
+        <v>4924377.264939999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4471610.44508</v>
+        <v>4481155.878059999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4153419.99299</v>
+        <v>4165222.19489</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3742382.2426</v>
+        <v>3687009.165049999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4469025.96557</v>
+        <v>4347581.76583</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6052824.428520001</v>
+        <v>5962671.875659999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6257137.08335</v>
+        <v>6121400.90675</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6212073.89057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6143600.68054</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6980796.693</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>2997.76984</v>
+        <v>1644.73887</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>121196.03944</v>
@@ -1037,7 +953,7 @@
         <v>258274.2572</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>23667.14118</v>
+        <v>36715.53515</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>25562.78569</v>
@@ -1046,7 +962,7 @@
         <v>163.11773</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>6914.75655</v>
+        <v>1266.82923</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>0</v>
@@ -1055,97 +971,112 @@
         <v>0</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2123.19834</v>
+        <v>0</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>289.85317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1200.676</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>21970.28356</v>
+        <v>20920.36769</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>9146.66012</v>
+        <v>8937.00166</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>78130.8278</v>
+        <v>77527.92820000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>11792.11105</v>
+        <v>9925.113399999998</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>17977.22755</v>
+        <v>16309.63145</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>53651.17786</v>
+        <v>51690.0998</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>51305.41075</v>
+        <v>39030.7991</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>57697.82059</v>
+        <v>56175.98457</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>57981.59954000001</v>
+        <v>57565.70716</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>63193.14704</v>
+        <v>62369.82298</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>508216.39935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>508205.78829</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>840143.632</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>7183.56968</v>
+        <v>7161.37875</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>5843.4895</v>
+        <v>5843.2195</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>8048.19207</v>
+        <v>8013.82075</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>6241.40999</v>
+        <v>3914.34376</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>15591.42541</v>
+        <v>14416.52875</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>12170.93056</v>
+        <v>12022.77063</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>6640.986529999999</v>
+        <v>6712.54392</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>27968.93755</v>
+        <v>25310.14556</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>38554.32458000001</v>
+        <v>38535.80309</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>16203.00592</v>
+        <v>16135.00872</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>17434.74085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>17381.29132</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>10362.134</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>6687.23262</v>
+        <v>6669.19317</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>5149.06186</v>
@@ -1154,22 +1085,22 @@
         <v>5835.76029</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4777.65915</v>
+        <v>1637.18605</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>7831.688099999999</v>
+        <v>6210.46572</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2721.79339</v>
+        <v>2565.89928</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2099.97293</v>
+        <v>2083.85582</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>22284.03636</v>
+        <v>22220.19653</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>33890.32936</v>
+        <v>33876.11380000001</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>10118.55878</v>
@@ -1177,38 +1108,43 @@
       <c r="M10" s="48" t="n">
         <v>8282.51361</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>699.914</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>423.65995</v>
+        <v>422.6573999999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>583.1809000000001</v>
+        <v>582.9109</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>661.27522</v>
+        <v>626.9038999999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>531.7501600000001</v>
+        <v>559.91366</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>414.9068</v>
+        <v>374.73256</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>556.10963</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1137.54517</v>
+        <v>1225.21967</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2946.48151</v>
+        <v>351.52935</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3176.45509</v>
+        <v>3173.29509</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>2923.85953</v>
@@ -1216,14 +1152,19 @@
       <c r="M11" s="48" t="n">
         <v>6878.19091</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>5757.102</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>72.67711</v>
+        <v>69.52818000000001</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>111.24674</v>
@@ -1232,13 +1173,13 @@
         <v>1551.15656</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>932.0006800000001</v>
+        <v>1717.24405</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>7344.83051</v>
+        <v>7831.330470000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>8893.027539999999</v>
+        <v>8900.76172</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>3403.46843</v>
@@ -1247,214 +1188,244 @@
         <v>2738.41968</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1487.54013</v>
+        <v>1486.3942</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>3160.58761</v>
+        <v>3092.59041</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2274.036329999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2220.5868</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3905.118</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4104655.25993</v>
+        <v>4068662.1243</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4084516.55668</v>
+        <v>4073252.5545</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5202602.50868</v>
+        <v>5170679.05645</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4917737.65869</v>
+        <v>4967103.56973</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4499559.03291</v>
+        <v>4508611.76645</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4195063.358019999</v>
+        <v>4205052.64179</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3793961.42337</v>
+        <v>3720594.24946</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4498754.84861</v>
+        <v>4378447.60484</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>6072251.703480001</v>
+        <v>5981701.779730001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6306250.422809999</v>
+        <v>6167635.72101</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6703145.40224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6634425.17751</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7811778.867</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3347693.85159</v>
+        <v>3321277.14724</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3473996.28305</v>
+        <v>3463511.36546</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4280832.29065</v>
+        <v>4253777.87372</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3884506.47757</v>
+        <v>3914154.00678</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3940423.60722</v>
+        <v>3953619.47995</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3812450.118890001</v>
+        <v>3836069.98176</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3774215.04406</v>
+        <v>3723404.3113</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4753040.15292</v>
+        <v>4652178.90455</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>6437939.52064</v>
+        <v>6361381.7053</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5551533.596369999</v>
+        <v>5400761.66321</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5780462.75871</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5710219.423099999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6598608.901</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2050620.21601</v>
+        <v>2031543.39867</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>2212050.01028</v>
+        <v>2201565.09269</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2943546.90777</v>
+        <v>2929841.28992</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2691708.42935</v>
+        <v>2729509.00729</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2515385.13503</v>
+        <v>2529997.17074</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2147956.90407</v>
+        <v>2170991.92793</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1967144.66667</v>
+        <v>1912834.4158</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2311575.28853</v>
+        <v>2226404.86508</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3079193.90685</v>
+        <v>3012940.82129</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3386150.22557</v>
+        <v>3371390.28949</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3777734.89304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3755789.46002</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4186491.857</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>702135.53033</v>
+        <v>701956.01639</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>653499.37899</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>793828.64552</v>
+        <v>793741.41313</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>788913.4134600001</v>
+        <v>803037.56524</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>963619.31413</v>
+        <v>965859.7655499999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1049738.96713</v>
+        <v>1053129.25555</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1221205.3161</v>
+        <v>1226964.95829</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1660546.07396</v>
+        <v>1644855.24904</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2418513.87804</v>
+        <v>2413050.58653</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>888142.40682</v>
+        <v>886649.61494</v>
       </c>
       <c r="M16" s="48" t="n">
         <v>777093.70876</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>1157323.952</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>573827.7231899999</v>
+        <v>566667.35012</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>597295.42177</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>533171.14729</v>
+        <v>519981.83234</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>339149.48763</v>
+        <v>317976.73206</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>450021.93451</v>
+        <v>446365.32011</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>602876.29931</v>
+        <v>600752.2072800001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>576455.1909500001</v>
+        <v>577431.7457000001</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>775329.6463800002</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>933459.55504</v>
+        <v>928618.11677</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1276268.05996</v>
+        <v>1141748.85476</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1220007.8471</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1171709.94451</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1245014.304</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>21110.38206</v>
@@ -1463,19 +1434,19 @@
         <v>11151.47201</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>10285.59007</v>
+        <v>10213.33833</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>64735.14713</v>
+        <v>63630.70219</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>11397.22355</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>11877.94838</v>
+        <v>11196.591</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>9409.870339999999</v>
+        <v>6173.19151</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>5589.14405</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>5626.30981</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>9778.788</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>756961.40834</v>
+        <v>747384.9770599999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>610520.27363</v>
+        <v>609741.1890400001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>921770.21803</v>
+        <v>916901.18273</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1033231.18112</v>
+        <v>1052949.56295</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>559135.4256900001</v>
+        <v>554992.2865</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>382613.23913</v>
+        <v>368982.66003</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>19746.37931</v>
+        <v>-2810.061840000033</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>-254285.30431</v>
+        <v>-273731.29971</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>-365687.8171600001</v>
+        <v>-379679.9255700001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>754716.8264400001</v>
+        <v>766874.0578</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>922682.64353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>924205.7544099999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1213169.966</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>498042.9274700001</v>
+        <v>493697.59574</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>508360.91691</v>
+        <v>507371.84023</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>619901.83202</v>
+        <v>607257.9882500001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>626978.1449900001</v>
+        <v>635378.00599</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>610653.65914</v>
+        <v>620996.23175</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>727854.71578</v>
+        <v>727600.35727</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>676169.5207400001</v>
+        <v>669583.28987</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>740723.439</v>
+        <v>729659.92027</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>970433.4439000001</v>
+        <v>961808.54956</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>820553.0173899999</v>
+        <v>818653.1537600001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>853361.04443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>845522.45452</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>996575.797</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1318.29167</v>
@@ -1580,22 +1566,22 @@
         <v>4079.36548</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>5049.058349999999</v>
+        <v>4246.62651</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2953.89231</v>
+        <v>2820.15367</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>5050.631</v>
+        <v>5503.18371</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>7333.764639999999</v>
+        <v>7888.00797</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>5129.92621</v>
+        <v>4912.47183</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>9833.19198</v>
+        <v>9594.844859999999</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>5350.848230000001</v>
@@ -1606,38 +1592,43 @@
       <c r="M21" s="48" t="n">
         <v>1838.24784</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>654.052</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>117010.94138</v>
+        <v>115515.23137</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>122830.98527</v>
+        <v>122485.11071</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>183263.62622</v>
+        <v>181922.80793</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>165631.22161</v>
+        <v>174877.77939</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>165282.36993</v>
+        <v>170898.37969</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>200881.47379</v>
+        <v>202074.24331</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>196489.63127</v>
+        <v>197275.7537</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>194091.94319</v>
+        <v>191277.23968</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>302536.13746</v>
+        <v>297420.82607</v>
       </c>
       <c r="L22" s="48" t="n">
         <v>329515.63886</v>
@@ -1645,128 +1636,148 @@
       <c r="M22" s="48" t="n">
         <v>305077.89485</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="48" t="n">
+        <v>360219.316</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>379713.69442</v>
+        <v>376864.0727</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>381450.56616</v>
+        <v>380807.36404</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>431589.14745</v>
+        <v>421088.5538100001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>458393.03107</v>
+        <v>457680.07293</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>440320.65821</v>
+        <v>444594.6683500001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>519639.47735</v>
+        <v>517638.10599</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>474549.96326</v>
+        <v>467395.06434</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>536798.30383</v>
+        <v>528787.83573</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>662546.4582100001</v>
+        <v>659036.87526</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>488313.0147</v>
+        <v>486413.15107</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>546444.90174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>538606.31183</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>635702.429</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>258918.48087</v>
+        <v>253687.38132</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>102159.35672</v>
+        <v>102369.34881</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>301868.38601</v>
+        <v>309643.19448</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>406253.0361300001</v>
+        <v>417571.55696</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-51518.23344999999</v>
+        <v>-66003.94524999995</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-345241.47665</v>
+        <v>-358617.69724</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-656423.1414300001</v>
+        <v>-672393.3517100001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-995008.7433099999</v>
+        <v>-1003391.21998</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-1336121.26106</v>
+        <v>-1341488.47513</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-65836.19094999999</v>
+        <v>-51779.09596</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>69321.59909999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>78683.29988999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>216594.169</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>265328.12821</v>
+        <v>263782.12928</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>348731.37569</v>
+        <v>348724.27728</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>450831.59214</v>
+        <v>422241.4562</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>622322.85324</v>
+        <v>669354.03188</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>310365.23837</v>
+        <v>341552.59291</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>348530.08633</v>
+        <v>348328.72558</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>369462.73185</v>
+        <v>384519.58526</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>538631.94115</v>
+        <v>532609.98197</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>647106.59874</v>
+        <v>641242.85106</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>843462.44663</v>
+        <v>779060.9335</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>615975.3621700001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>564755.91536</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>780434.458</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>22233.97085</v>
@@ -1793,7 +1804,7 @@
         <v>3858.85097</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1867.97055</v>
+        <v>1834.6373</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>2007.08984</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1377.18286</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>62.25</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>4588.33116</v>
@@ -1835,58 +1851,68 @@
         <v>295.66073</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>12924.59553</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>25059.89196</v>
+        <v>25039.46306</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>16398.48253</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>33180.53188</v>
+        <v>31163.78306</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>28211.26103</v>
+        <v>28232.35145</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>16137.14002</v>
+        <v>16070.20009</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>44068.72847000001</v>
+        <v>39282.50319</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>34481.05318</v>
+        <v>33685.88949</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>51232.72616000001</v>
+        <v>48411.10761</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>79351.31207000001</v>
+        <v>78223.84559</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>183512.04479</v>
+        <v>166342.28994</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>277774.53875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>258803.90506</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>236291.456</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>753.4775100000001</v>
+        <v>753.26151</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>356.21323</v>
@@ -1898,7 +1924,7 @@
         <v>229.14483</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>3152.36438</v>
+        <v>24.98925</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>1777.10552</v>
@@ -1907,7 +1933,7 @@
         <v>59.82737</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>348.21152</v>
+        <v>291.53656</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>99.83604</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>842.1427</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>925.188</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>15872.05458</v>
+        <v>15828.85966</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>2350.74842</v>
@@ -1946,7 +1977,7 @@
         <v>3847.87795</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>999.34168</v>
+        <v>985.67417</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>12431.47742</v>
@@ -1957,20 +1988,25 @@
       <c r="M30" s="48" t="n">
         <v>1056.00735</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>2327.035</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>2052.60846</v>
+        <v>2038.52743</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>2378.34222</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>22198.94851</v>
+        <v>109.98051</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>1000.29949</v>
@@ -1988,7 +2024,7 @@
         <v>42.87522</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>0.12444</v>
+        <v>0</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>0</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>1033.30605</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>95519.48867000001</v>
+        <v>94051.41059</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>38497.71197</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>19939.58482</v>
+        <v>15538.3157</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>18288.63181</v>
+        <v>38483.4319</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>11891.7005</v>
+        <v>23608.83326</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>17956.04601</v>
+        <v>17236.98658</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>45378.39602</v>
+        <v>46440.10438999999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>45310.46756</v>
+        <v>42365.12277</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>33423.0962</v>
+        <v>31317.35984</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>104943.32113</v>
+        <v>59527.41299</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>60271.11336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>44448.30659</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>68849.798</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>11911.04102</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>4.53141</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>2917.713</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,92 +2164,107 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>87337.264</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>103961.82336</v>
+        <v>103954.72495</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>356637.84201</v>
+        <v>356554.69201</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>133762.34921</v>
+        <v>160577.63734</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>162788.84724</v>
+        <v>185453.38408</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>160235.98767</v>
+        <v>165539.91163</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>270753.56055</v>
+        <v>285543.86928</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>436839.46804</v>
+        <v>436654.81467</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>519637.12129</v>
+        <v>517040.03414</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>551340.34331</v>
+        <v>549724.4931699999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>260691.94416</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>257190.53334</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>469041.418</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>53700.42348</v>
+        <v>52123.22023000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>36899.23605</v>
+        <v>35280.9958</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>76836.15196</v>
+        <v>75900.27004</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>68737.59315</v>
+        <v>85201.09093000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>92193.87133000001</v>
+        <v>115361.27658</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>90834.50102</v>
+        <v>91220.57051999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>141844.08099</v>
+        <v>141110.22636</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>130235.1492</v>
+        <v>122157.02337</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>139554.65958</v>
+        <v>132561.60551</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>202514.34245</v>
+        <v>169074.07991</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>497836.11152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>483864.87824</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>458624.545</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>19.83095</v>
+        <v>2.54945</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>33.41873</v>
@@ -2210,13 +2276,13 @@
         <v>43.61156</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>27.05124</v>
+        <v>15.82093</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>22.01046</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2413.71523</v>
+        <v>23.00504</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>32.51752</v>
@@ -2230,26 +2296,31 @@
       <c r="M37" s="48" t="n">
         <v>0.02396</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>76.271</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1348.53295</v>
+        <v>1106.45197</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>4317.5118</v>
+        <v>2775.8862</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>1805.83944</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>8232.941000000001</v>
+        <v>10658.80586</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1563.41892</v>
+        <v>1629.37392</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>5216.06461</v>
@@ -2261,7 +2332,7 @@
         <v>28471.55915</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>24995.34485</v>
+        <v>24245.34485</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>22072.01351</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>245258.75807</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>10441.852</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2288,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>669.1095</v>
+        <v>603.65959</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>31325.35404</v>
+        <v>30007.51327</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>16958.00963</v>
+        <v>16881.39498</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>47049.43409</v>
+        <v>46113.55217</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>8335.515160000001</v>
+        <v>20511.64661</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>13191.52536</v>
+        <v>36640.81794</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>16848.48252</v>
+        <v>16968.45502</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>40208.26014</v>
+        <v>42012.14488</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>36542.04339</v>
+        <v>29242.69276</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>30923.29109</v>
+        <v>26501.09211</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>139126.12389</v>
+        <v>105685.86135</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>87020.86714</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>73542.96715000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>115039.192</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.36582</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1799.17372</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1123.071</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>21006.33972</v>
@@ -2441,121 +2537,136 @@
         <v>27934.23718</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>52116.57388</v>
+        <v>53978.07535</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>76742.76631000001</v>
+        <v>76471.6042</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>68747.94343</v>
+        <v>69014.04043000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>87055.28522000001</v>
+        <v>86908.25604000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>65189.02914</v>
+        <v>64410.25394</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>83607.70801999999</v>
+        <v>81786.85293000001</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>41074.67954999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>163757.28863</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>163263.95534</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>331944.159</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>170442.34376</v>
+        <v>169665.03313</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>85337.02638</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>75591.40339000001</v>
+        <v>73332.32889999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>37296.07456</v>
+        <v>55844.39974</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>52789.92354</v>
+        <v>87563.45837000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>91749.63178</v>
+        <v>83002.96024</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>119847.96177</v>
+        <v>93845.66412999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>135603.78299</v>
+        <v>110627.26479</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>162173.1256</v>
+        <v>141637.02181</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>321137.15118</v>
+        <v>272816.7349</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>374667.7477899999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>325005.16862</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>204803.46</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>106272.805</v>
+        <v>105568.90042</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>65208.87917</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>52442.87802</v>
+        <v>50360.34486</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>32799.99371</v>
+        <v>51348.31889</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>50218.48006</v>
+        <v>84992.01488999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>86457.67592000001</v>
+        <v>77711.00438</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>104141.29925</v>
+        <v>78139.03371999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>123808.50438</v>
+        <v>98831.98617999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>152096.03368</v>
+        <v>131559.92989</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>294139.93331</v>
+        <v>245819.51703</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>364700.20307</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>315037.6239000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>191797.075</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>64169.53876</v>
+        <v>64096.13271</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>20128.14721</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>23148.52537</v>
+        <v>22971.98404</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>4496.080849999999</v>
@@ -2567,7 +2678,7 @@
         <v>5291.95586</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>15706.66252</v>
+        <v>15706.63041</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>11795.27861</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>9967.54472</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>13006.385</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>300103.84184</v>
+        <v>295681.2572399999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>328654.4699799999</v>
+        <v>330475.6039099999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>600272.4227999999</v>
+        <v>582652.05174</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>922542.22166</v>
+        <v>945880.0981699999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>113863.21005</v>
+        <v>72623.91270999992</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-179295.52312</v>
+        <v>-184512.50242</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-548652.4523400001</v>
+        <v>-522829.6569400001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-722215.73435</v>
+        <v>-703565.5261700001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-990742.4475</v>
+        <v>-974444.25139</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>253974.76205</v>
+        <v>285391.02273</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-187206.89804</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-165430.83161</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>333600.622</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>30222.98084</v>
+        <v>29472.27955</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>24233.63134</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>44379.89808</v>
+        <v>41834.93543</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>48288.62645</v>
+        <v>48109.32336</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>34019.15174</v>
+        <v>33965.48856000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>84655.21826000001</v>
+        <v>87685.05158</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>49706.93195000001</v>
+        <v>47824.08928</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>77980.43692000001</v>
+        <v>77485.91978999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>143134.89807</v>
+        <v>129609.61993</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>60190.51349</v>
+        <v>60054.28616</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>322641.6082600001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>321066.56628</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>107095.467</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2230.74682</v>
@@ -2678,7 +2804,7 @@
         <v>11436.14205</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>6257.92927</v>
+        <v>6321.01592</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>9194.41576</v>
@@ -2687,100 +2813,115 @@
         <v>24777.58027</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3694.83643</v>
+        <v>3692.63091</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>11477.03667</v>
+        <v>11460.57231</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>4427.720740000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>267580.84039</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>267481.13586</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>7170.773</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>27992.23402</v>
+        <v>27241.53273</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>17007.38936</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>29563.11653</v>
+        <v>27018.15388</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>36852.4844</v>
+        <v>36673.18130999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>27761.22247</v>
+        <v>27644.47264</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>75460.80250000001</v>
+        <v>78490.63582</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>24929.35168</v>
+        <v>23046.50901</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>74285.60049000001</v>
+        <v>73793.28887999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>131657.8614</v>
+        <v>118149.04762</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>55762.79275</v>
+        <v>55626.56541999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>55060.76787</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>53585.43042</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>99924.694</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>96114.85715000001</v>
+        <v>96053.31571000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>79483.79544</v>
+        <v>76679.26863999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>257563.98675</v>
+        <v>256547.39026</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>164587.5819</v>
+        <v>161223.23625</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>356738.38533</v>
+        <v>356743.6574</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>431792.4216</v>
+        <v>622261.6648399999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>224663.36225</v>
+        <v>228987.43736</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>252560.98154</v>
+        <v>234006.80656</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>319313.04013</v>
+        <v>304637.81629</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>285286.12109</v>
+        <v>284166.13913</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>338300.67021</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>331237.2468</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>272920.043</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1369.0185</v>
@@ -2789,7 +2930,7 @@
         <v>3849.122679999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>11879.5302</v>
+        <v>11025.4348</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>35795.6078</v>
@@ -2798,28 +2939,33 @@
         <v>22508.04571</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>123951.15333</v>
+        <v>123896.15333</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>68020.52852000001</v>
+        <v>64644.99441</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>77445.11029</v>
+        <v>73775.08386</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>172179.56175</v>
+        <v>171600.23432</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>186433.98117</v>
+        <v>186133.89496</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>170026.19867</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>166051.17965</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>186380.882</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>64848.19259000001</v>
@@ -2837,181 +2983,204 @@
         <v>74088.67556999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>87870.45688</v>
+        <v>88122.15777999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>145719.10873</v>
+        <v>146216.51179</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>148641.88614</v>
+        <v>148640.5838</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>109908.69093</v>
+        <v>109896.27645</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>50850.06149</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>110810.87001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>108565.93465</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>62838.587</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>29897.64606</v>
+        <v>29836.10462</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>12635.8367</v>
+        <v>9831.3099</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>49978.06281</v>
+        <v>49815.56172</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>23030.69782</v>
+        <v>19666.35217</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>260141.66405</v>
+        <v>260146.93612</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>219970.81139</v>
+        <v>410243.35373</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>10923.725</v>
+        <v>18125.93116</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>26473.98511</v>
+        <v>11591.1389</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>37224.78745</v>
+        <v>23141.30552</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>48002.07843</v>
+        <v>47182.18268</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>57463.60153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>56620.1325</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>23700.574</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>234211.96553</v>
+        <v>229100.22108</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>273404.3058800001</v>
+        <v>278029.96661</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>387088.33413</v>
+        <v>367939.59691</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>806243.2662099999</v>
+        <v>832766.18528</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-208856.02354</v>
+        <v>-250154.25613</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-526432.72646</v>
+        <v>-719089.1156799999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-723608.88264</v>
+        <v>-703993.0050199999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-896796.2789699999</v>
+        <v>-860086.41294</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-1166920.58956</v>
+        <v>-1149472.44775</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>28879.15445</v>
+        <v>61279.16976</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-202865.95999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-175601.51213</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>167776.046</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>40362.93703</v>
+        <v>39349.8242</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>80135.89619000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>82608.89266000001</v>
+        <v>80884.70226000001</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>100251.98623</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>104324.97904</v>
+        <v>103742.3772</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>66269.30421</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>24012.97679</v>
+        <v>23285.94345</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>35557.24513</v>
+        <v>35037.74771</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>51491.83313</v>
+        <v>51219.30573000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>58375.07264</v>
+        <v>55195.15731</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>34214.34114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>28115.40288</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>88672.11199999999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>193849.0285</v>
+        <v>189750.39688</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>193268.4096899999</v>
+        <v>197894.0704200001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>304479.44147</v>
+        <v>287054.89465</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>705991.27998</v>
+        <v>732514.1990500001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-313181.00258</v>
+        <v>-353896.63333</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-592702.0306700001</v>
+        <v>-785358.41989</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-747621.85943</v>
+        <v>-727278.9484700001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-932353.5240999999</v>
+        <v>-895124.16065</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-1218412.42269</v>
+        <v>-1200691.75348</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-29495.91819</v>
+        <v>6084.01245</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-237080.30113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-203716.91501</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>79103.93399999999</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I59" s="35" t="n">
+        <v>22</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>23</v>
+      </c>
+      <c r="K59" s="35" t="n">
         <v>31</v>
       </c>
-      <c r="J59" s="35" t="n">
-        <v>31</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>40</v>
-      </c>
       <c r="L59" s="35" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>20</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>